--- a/xlsx/冷戰_intext.xlsx
+++ b/xlsx/冷戰_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2356">
   <si>
     <t>冷戰</t>
   </si>
@@ -29,7 +29,7 @@
     <t>柏林圍牆</t>
   </si>
   <si>
-    <t>政策_政策_美國_冷戰</t>
+    <t>体育运动_体育运动_犹太人大屠杀_冷戰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E5%BE%B7%E5%9C%8B</t>
@@ -2708,6 +2708,24 @@
     <t>失敗國家</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E6%B5%B7%E5%95%8F%E9%A1%8C</t>
+  </si>
+  <si>
+    <t>台海問題</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E5%8D%8A%E5%B2%9B</t>
+  </si>
+  <si>
+    <t>朝鲜半岛</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BF%84%E9%97%9C%E4%BF%82</t>
+  </si>
+  <si>
+    <t>美俄關係</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E7%8E%8B%E5%9B%BD</t>
   </si>
   <si>
@@ -3432,6 +3450,12 @@
   </si>
   <si>
     <t>衣索比亞內戰</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+  </si>
+  <si>
+    <t>改革开放</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%AC%E8%B6%8A%E6%88%B0%E7%88%AD</t>
@@ -7407,7 +7431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1246"/>
+  <dimension ref="A1:I1250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8476,7 +8500,7 @@
         <v>74</v>
       </c>
       <c r="G37" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
@@ -8534,7 +8558,7 @@
         <v>78</v>
       </c>
       <c r="G39" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
@@ -21091,7 +21115,7 @@
         <v>900</v>
       </c>
       <c r="G472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H472" t="s">
         <v>4</v>
@@ -21294,7 +21318,7 @@
         <v>914</v>
       </c>
       <c r="G479" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H479" t="s">
         <v>4</v>
@@ -21381,7 +21405,7 @@
         <v>920</v>
       </c>
       <c r="G482" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H482" t="s">
         <v>4</v>
@@ -21439,7 +21463,7 @@
         <v>924</v>
       </c>
       <c r="G484" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H484" t="s">
         <v>4</v>
@@ -21468,7 +21492,7 @@
         <v>926</v>
       </c>
       <c r="G485" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H485" t="s">
         <v>4</v>
@@ -21497,7 +21521,7 @@
         <v>928</v>
       </c>
       <c r="G486" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H486" t="s">
         <v>4</v>
@@ -21555,7 +21579,7 @@
         <v>932</v>
       </c>
       <c r="G488" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H488" t="s">
         <v>4</v>
@@ -21584,7 +21608,7 @@
         <v>934</v>
       </c>
       <c r="G489" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H489" t="s">
         <v>4</v>
@@ -21613,7 +21637,7 @@
         <v>936</v>
       </c>
       <c r="G490" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H490" t="s">
         <v>4</v>
@@ -21642,7 +21666,7 @@
         <v>938</v>
       </c>
       <c r="G491" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H491" t="s">
         <v>4</v>
@@ -21700,7 +21724,7 @@
         <v>942</v>
       </c>
       <c r="G493" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H493" t="s">
         <v>4</v>
@@ -21729,7 +21753,7 @@
         <v>944</v>
       </c>
       <c r="G494" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H494" t="s">
         <v>4</v>
@@ -21787,7 +21811,7 @@
         <v>948</v>
       </c>
       <c r="G496" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H496" t="s">
         <v>4</v>
@@ -21932,7 +21956,7 @@
         <v>958</v>
       </c>
       <c r="G501" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H501" t="s">
         <v>4</v>
@@ -21990,7 +22014,7 @@
         <v>962</v>
       </c>
       <c r="G503" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H503" t="s">
         <v>4</v>
@@ -22019,7 +22043,7 @@
         <v>964</v>
       </c>
       <c r="G504" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="H504" t="s">
         <v>4</v>
@@ -22077,7 +22101,7 @@
         <v>968</v>
       </c>
       <c r="G506" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H506" t="s">
         <v>4</v>
@@ -22106,7 +22130,7 @@
         <v>970</v>
       </c>
       <c r="G507" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H507" t="s">
         <v>4</v>
@@ -22570,7 +22594,7 @@
         <v>1002</v>
       </c>
       <c r="G523" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H523" t="s">
         <v>4</v>
@@ -22593,10 +22617,10 @@
         <v>523</v>
       </c>
       <c r="E524" t="s">
-        <v>293</v>
+        <v>1003</v>
       </c>
       <c r="F524" t="s">
-        <v>294</v>
+        <v>1004</v>
       </c>
       <c r="G524" t="n">
         <v>1</v>
@@ -22622,10 +22646,10 @@
         <v>524</v>
       </c>
       <c r="E525" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="F525" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="G525" t="n">
         <v>1</v>
@@ -22651,13 +22675,13 @@
         <v>525</v>
       </c>
       <c r="E526" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="F526" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="G526" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H526" t="s">
         <v>4</v>
@@ -22680,13 +22704,13 @@
         <v>526</v>
       </c>
       <c r="E527" t="s">
-        <v>1007</v>
+        <v>293</v>
       </c>
       <c r="F527" t="s">
-        <v>1008</v>
+        <v>294</v>
       </c>
       <c r="G527" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H527" t="s">
         <v>4</v>
@@ -22744,7 +22768,7 @@
         <v>1012</v>
       </c>
       <c r="G529" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H529" t="s">
         <v>4</v>
@@ -22773,7 +22797,7 @@
         <v>1014</v>
       </c>
       <c r="G530" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H530" t="s">
         <v>4</v>
@@ -22796,10 +22820,10 @@
         <v>530</v>
       </c>
       <c r="E531" t="s">
-        <v>475</v>
+        <v>1015</v>
       </c>
       <c r="F531" t="s">
-        <v>476</v>
+        <v>1016</v>
       </c>
       <c r="G531" t="n">
         <v>1</v>
@@ -22825,13 +22849,13 @@
         <v>531</v>
       </c>
       <c r="E532" t="s">
-        <v>775</v>
+        <v>1017</v>
       </c>
       <c r="F532" t="s">
-        <v>776</v>
+        <v>1018</v>
       </c>
       <c r="G532" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H532" t="s">
         <v>4</v>
@@ -22854,10 +22878,10 @@
         <v>532</v>
       </c>
       <c r="E533" t="s">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="F533" t="s">
-        <v>1016</v>
+        <v>1020</v>
       </c>
       <c r="G533" t="n">
         <v>1</v>
@@ -22883,10 +22907,10 @@
         <v>533</v>
       </c>
       <c r="E534" t="s">
-        <v>1017</v>
+        <v>475</v>
       </c>
       <c r="F534" t="s">
-        <v>1018</v>
+        <v>476</v>
       </c>
       <c r="G534" t="n">
         <v>1</v>
@@ -22912,10 +22936,10 @@
         <v>534</v>
       </c>
       <c r="E535" t="s">
-        <v>1019</v>
+        <v>775</v>
       </c>
       <c r="F535" t="s">
-        <v>1020</v>
+        <v>776</v>
       </c>
       <c r="G535" t="n">
         <v>1</v>
@@ -24101,10 +24125,10 @@
         <v>575</v>
       </c>
       <c r="E576" t="s">
-        <v>721</v>
+        <v>1101</v>
       </c>
       <c r="F576" t="s">
-        <v>722</v>
+        <v>1102</v>
       </c>
       <c r="G576" t="n">
         <v>1</v>
@@ -24130,10 +24154,10 @@
         <v>576</v>
       </c>
       <c r="E577" t="s">
-        <v>565</v>
+        <v>1103</v>
       </c>
       <c r="F577" t="s">
-        <v>566</v>
+        <v>1104</v>
       </c>
       <c r="G577" t="n">
         <v>1</v>
@@ -24159,13 +24183,13 @@
         <v>577</v>
       </c>
       <c r="E578" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="F578" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="G578" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H578" t="s">
         <v>4</v>
@@ -24188,10 +24212,10 @@
         <v>578</v>
       </c>
       <c r="E579" t="s">
-        <v>1103</v>
+        <v>721</v>
       </c>
       <c r="F579" t="s">
-        <v>1104</v>
+        <v>722</v>
       </c>
       <c r="G579" t="n">
         <v>1</v>
@@ -24217,10 +24241,10 @@
         <v>579</v>
       </c>
       <c r="E580" t="s">
-        <v>1105</v>
+        <v>565</v>
       </c>
       <c r="F580" t="s">
-        <v>1106</v>
+        <v>566</v>
       </c>
       <c r="G580" t="n">
         <v>1</v>
@@ -24252,7 +24276,7 @@
         <v>1108</v>
       </c>
       <c r="G581" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H581" t="s">
         <v>4</v>
@@ -24426,7 +24450,7 @@
         <v>1120</v>
       </c>
       <c r="G587" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H587" t="s">
         <v>4</v>
@@ -24513,7 +24537,7 @@
         <v>1126</v>
       </c>
       <c r="G590" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H590" t="s">
         <v>4</v>
@@ -24565,10 +24589,10 @@
         <v>591</v>
       </c>
       <c r="E592" t="s">
-        <v>721</v>
+        <v>1129</v>
       </c>
       <c r="F592" t="s">
-        <v>722</v>
+        <v>1130</v>
       </c>
       <c r="G592" t="n">
         <v>1</v>
@@ -24594,10 +24618,10 @@
         <v>592</v>
       </c>
       <c r="E593" t="s">
-        <v>1129</v>
+        <v>1131</v>
       </c>
       <c r="F593" t="s">
-        <v>1130</v>
+        <v>1132</v>
       </c>
       <c r="G593" t="n">
         <v>1</v>
@@ -24623,10 +24647,10 @@
         <v>593</v>
       </c>
       <c r="E594" t="s">
-        <v>1131</v>
+        <v>1133</v>
       </c>
       <c r="F594" t="s">
-        <v>1132</v>
+        <v>1134</v>
       </c>
       <c r="G594" t="n">
         <v>1</v>
@@ -24652,10 +24676,10 @@
         <v>594</v>
       </c>
       <c r="E595" t="s">
-        <v>1133</v>
+        <v>721</v>
       </c>
       <c r="F595" t="s">
-        <v>1134</v>
+        <v>722</v>
       </c>
       <c r="G595" t="n">
         <v>1</v>
@@ -24971,10 +24995,10 @@
         <v>605</v>
       </c>
       <c r="E606" t="s">
-        <v>777</v>
+        <v>1155</v>
       </c>
       <c r="F606" t="s">
-        <v>778</v>
+        <v>1156</v>
       </c>
       <c r="G606" t="n">
         <v>1</v>
@@ -25000,13 +25024,13 @@
         <v>606</v>
       </c>
       <c r="E607" t="s">
-        <v>1155</v>
+        <v>1157</v>
       </c>
       <c r="F607" t="s">
-        <v>1156</v>
+        <v>1158</v>
       </c>
       <c r="G607" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H607" t="s">
         <v>4</v>
@@ -25029,10 +25053,10 @@
         <v>607</v>
       </c>
       <c r="E608" t="s">
-        <v>753</v>
+        <v>1159</v>
       </c>
       <c r="F608" t="s">
-        <v>754</v>
+        <v>1160</v>
       </c>
       <c r="G608" t="n">
         <v>1</v>
@@ -25058,10 +25082,10 @@
         <v>608</v>
       </c>
       <c r="E609" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
       <c r="F609" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="G609" t="n">
         <v>1</v>
@@ -25087,10 +25111,10 @@
         <v>609</v>
       </c>
       <c r="E610" t="s">
-        <v>1159</v>
+        <v>777</v>
       </c>
       <c r="F610" t="s">
-        <v>1160</v>
+        <v>778</v>
       </c>
       <c r="G610" t="n">
         <v>1</v>
@@ -25116,13 +25140,13 @@
         <v>610</v>
       </c>
       <c r="E611" t="s">
-        <v>1161</v>
+        <v>1163</v>
       </c>
       <c r="F611" t="s">
-        <v>1162</v>
+        <v>1164</v>
       </c>
       <c r="G611" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H611" t="s">
         <v>4</v>
@@ -25145,10 +25169,10 @@
         <v>611</v>
       </c>
       <c r="E612" t="s">
-        <v>1163</v>
+        <v>753</v>
       </c>
       <c r="F612" t="s">
-        <v>1164</v>
+        <v>754</v>
       </c>
       <c r="G612" t="n">
         <v>1</v>
@@ -25203,10 +25227,10 @@
         <v>613</v>
       </c>
       <c r="E614" t="s">
-        <v>95</v>
+        <v>1167</v>
       </c>
       <c r="F614" t="s">
-        <v>96</v>
+        <v>1168</v>
       </c>
       <c r="G614" t="n">
         <v>1</v>
@@ -25232,10 +25256,10 @@
         <v>614</v>
       </c>
       <c r="E615" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
       <c r="F615" t="s">
-        <v>1168</v>
+        <v>1170</v>
       </c>
       <c r="G615" t="n">
         <v>1</v>
@@ -25261,10 +25285,10 @@
         <v>615</v>
       </c>
       <c r="E616" t="s">
-        <v>1169</v>
+        <v>1171</v>
       </c>
       <c r="F616" t="s">
-        <v>1170</v>
+        <v>1172</v>
       </c>
       <c r="G616" t="n">
         <v>1</v>
@@ -25290,10 +25314,10 @@
         <v>616</v>
       </c>
       <c r="E617" t="s">
-        <v>49</v>
+        <v>1173</v>
       </c>
       <c r="F617" t="s">
-        <v>50</v>
+        <v>1174</v>
       </c>
       <c r="G617" t="n">
         <v>1</v>
@@ -25319,13 +25343,13 @@
         <v>617</v>
       </c>
       <c r="E618" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="F618" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G618" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H618" t="s">
         <v>4</v>
@@ -25348,10 +25372,10 @@
         <v>618</v>
       </c>
       <c r="E619" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
       <c r="F619" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="G619" t="n">
         <v>1</v>
@@ -25377,10 +25401,10 @@
         <v>619</v>
       </c>
       <c r="E620" t="s">
-        <v>759</v>
+        <v>1177</v>
       </c>
       <c r="F620" t="s">
-        <v>760</v>
+        <v>1178</v>
       </c>
       <c r="G620" t="n">
         <v>1</v>
@@ -25406,13 +25430,13 @@
         <v>620</v>
       </c>
       <c r="E621" t="s">
-        <v>1173</v>
+        <v>49</v>
       </c>
       <c r="F621" t="s">
-        <v>1174</v>
+        <v>50</v>
       </c>
       <c r="G621" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H621" t="s">
         <v>4</v>
@@ -25435,13 +25459,13 @@
         <v>621</v>
       </c>
       <c r="E622" t="s">
-        <v>1175</v>
+        <v>51</v>
       </c>
       <c r="F622" t="s">
-        <v>1176</v>
+        <v>52</v>
       </c>
       <c r="G622" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H622" t="s">
         <v>4</v>
@@ -25464,10 +25488,10 @@
         <v>622</v>
       </c>
       <c r="E623" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
       <c r="F623" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
       <c r="G623" t="n">
         <v>1</v>
@@ -25493,10 +25517,10 @@
         <v>623</v>
       </c>
       <c r="E624" t="s">
-        <v>1007</v>
+        <v>759</v>
       </c>
       <c r="F624" t="s">
-        <v>1008</v>
+        <v>760</v>
       </c>
       <c r="G624" t="n">
         <v>1</v>
@@ -25522,13 +25546,13 @@
         <v>624</v>
       </c>
       <c r="E625" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
       <c r="F625" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="G625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H625" t="s">
         <v>4</v>
@@ -25551,10 +25575,10 @@
         <v>625</v>
       </c>
       <c r="E626" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
       <c r="F626" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
       <c r="G626" t="n">
         <v>1</v>
@@ -25580,10 +25604,10 @@
         <v>626</v>
       </c>
       <c r="E627" t="s">
-        <v>1183</v>
+        <v>1185</v>
       </c>
       <c r="F627" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="G627" t="n">
         <v>1</v>
@@ -25609,10 +25633,10 @@
         <v>627</v>
       </c>
       <c r="E628" t="s">
-        <v>1185</v>
+        <v>1013</v>
       </c>
       <c r="F628" t="s">
-        <v>1186</v>
+        <v>1014</v>
       </c>
       <c r="G628" t="n">
         <v>1</v>
@@ -25638,13 +25662,13 @@
         <v>628</v>
       </c>
       <c r="E629" t="s">
-        <v>855</v>
+        <v>1187</v>
       </c>
       <c r="F629" t="s">
-        <v>856</v>
+        <v>1188</v>
       </c>
       <c r="G629" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H629" t="s">
         <v>4</v>
@@ -25667,10 +25691,10 @@
         <v>629</v>
       </c>
       <c r="E630" t="s">
-        <v>1187</v>
+        <v>1189</v>
       </c>
       <c r="F630" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="G630" t="n">
         <v>1</v>
@@ -25696,10 +25720,10 @@
         <v>630</v>
       </c>
       <c r="E631" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
       <c r="F631" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
       <c r="G631" t="n">
         <v>1</v>
@@ -25725,10 +25749,10 @@
         <v>631</v>
       </c>
       <c r="E632" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F632" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
       <c r="G632" t="n">
         <v>1</v>
@@ -25754,13 +25778,13 @@
         <v>632</v>
       </c>
       <c r="E633" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
       <c r="F633" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
       <c r="G633" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H633" t="s">
         <v>4</v>
@@ -25783,13 +25807,13 @@
         <v>633</v>
       </c>
       <c r="E634" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
       <c r="F634" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
       <c r="G634" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H634" t="s">
         <v>4</v>
@@ -25812,13 +25836,13 @@
         <v>634</v>
       </c>
       <c r="E635" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
       <c r="F635" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
       <c r="G635" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H635" t="s">
         <v>4</v>
@@ -25841,10 +25865,10 @@
         <v>635</v>
       </c>
       <c r="E636" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
       <c r="F636" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
       <c r="G636" t="n">
         <v>1</v>
@@ -25870,10 +25894,10 @@
         <v>636</v>
       </c>
       <c r="E637" t="s">
-        <v>1199</v>
+        <v>861</v>
       </c>
       <c r="F637" t="s">
-        <v>1200</v>
+        <v>862</v>
       </c>
       <c r="G637" t="n">
         <v>1</v>
@@ -25905,7 +25929,7 @@
         <v>1202</v>
       </c>
       <c r="G638" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H638" t="s">
         <v>4</v>
@@ -25986,13 +26010,13 @@
         <v>640</v>
       </c>
       <c r="E641" t="s">
-        <v>857</v>
+        <v>1207</v>
       </c>
       <c r="F641" t="s">
-        <v>858</v>
+        <v>1208</v>
       </c>
       <c r="G641" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H641" t="s">
         <v>4</v>
@@ -26015,13 +26039,13 @@
         <v>641</v>
       </c>
       <c r="E642" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
       <c r="F642" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
       <c r="G642" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H642" t="s">
         <v>4</v>
@@ -26044,10 +26068,10 @@
         <v>642</v>
       </c>
       <c r="E643" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
       <c r="F643" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
       <c r="G643" t="n">
         <v>2</v>
@@ -26073,10 +26097,10 @@
         <v>643</v>
       </c>
       <c r="E644" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="F644" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
       <c r="G644" t="n">
         <v>1</v>
@@ -26102,13 +26126,13 @@
         <v>644</v>
       </c>
       <c r="E645" t="s">
-        <v>1213</v>
+        <v>857</v>
       </c>
       <c r="F645" t="s">
-        <v>1214</v>
+        <v>858</v>
       </c>
       <c r="G645" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645" t="s">
         <v>4</v>
@@ -26137,7 +26161,7 @@
         <v>1216</v>
       </c>
       <c r="G646" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H646" t="s">
         <v>4</v>
@@ -26282,7 +26306,7 @@
         <v>1226</v>
       </c>
       <c r="G651" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H651" t="s">
         <v>4</v>
@@ -26421,10 +26445,10 @@
         <v>655</v>
       </c>
       <c r="E656" t="s">
-        <v>727</v>
+        <v>1235</v>
       </c>
       <c r="F656" t="s">
-        <v>728</v>
+        <v>1236</v>
       </c>
       <c r="G656" t="n">
         <v>1</v>
@@ -26450,10 +26474,10 @@
         <v>656</v>
       </c>
       <c r="E657" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
       <c r="F657" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
       <c r="G657" t="n">
         <v>1</v>
@@ -26479,10 +26503,10 @@
         <v>657</v>
       </c>
       <c r="E658" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
       <c r="F658" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
       <c r="G658" t="n">
         <v>1</v>
@@ -26508,10 +26532,10 @@
         <v>658</v>
       </c>
       <c r="E659" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
       <c r="F659" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
       <c r="G659" t="n">
         <v>1</v>
@@ -26537,10 +26561,10 @@
         <v>659</v>
       </c>
       <c r="E660" t="s">
-        <v>1241</v>
+        <v>727</v>
       </c>
       <c r="F660" t="s">
-        <v>1242</v>
+        <v>728</v>
       </c>
       <c r="G660" t="n">
         <v>1</v>
@@ -26630,7 +26654,7 @@
         <v>1248</v>
       </c>
       <c r="G663" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H663" t="s">
         <v>4</v>
@@ -26717,7 +26741,7 @@
         <v>1254</v>
       </c>
       <c r="G666" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H666" t="s">
         <v>4</v>
@@ -26746,7 +26770,7 @@
         <v>1256</v>
       </c>
       <c r="G667" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H667" t="s">
         <v>4</v>
@@ -26833,7 +26857,7 @@
         <v>1262</v>
       </c>
       <c r="G670" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H670" t="s">
         <v>4</v>
@@ -27007,7 +27031,7 @@
         <v>1274</v>
       </c>
       <c r="G676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H676" t="s">
         <v>4</v>
@@ -27036,7 +27060,7 @@
         <v>1276</v>
       </c>
       <c r="G677" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H677" t="s">
         <v>4</v>
@@ -27065,7 +27089,7 @@
         <v>1278</v>
       </c>
       <c r="G678" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H678" t="s">
         <v>4</v>
@@ -27123,7 +27147,7 @@
         <v>1282</v>
       </c>
       <c r="G680" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H680" t="s">
         <v>4</v>
@@ -27152,7 +27176,7 @@
         <v>1284</v>
       </c>
       <c r="G681" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H681" t="s">
         <v>4</v>
@@ -27181,7 +27205,7 @@
         <v>1286</v>
       </c>
       <c r="G682" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H682" t="s">
         <v>4</v>
@@ -27239,7 +27263,7 @@
         <v>1290</v>
       </c>
       <c r="G684" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H684" t="s">
         <v>4</v>
@@ -27355,7 +27379,7 @@
         <v>1298</v>
       </c>
       <c r="G688" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H688" t="s">
         <v>4</v>
@@ -27494,10 +27518,10 @@
         <v>692</v>
       </c>
       <c r="E693" t="s">
-        <v>963</v>
+        <v>1307</v>
       </c>
       <c r="F693" t="s">
-        <v>964</v>
+        <v>1308</v>
       </c>
       <c r="G693" t="n">
         <v>1</v>
@@ -27523,10 +27547,10 @@
         <v>693</v>
       </c>
       <c r="E694" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
       <c r="F694" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
       <c r="G694" t="n">
         <v>1</v>
@@ -27552,10 +27576,10 @@
         <v>694</v>
       </c>
       <c r="E695" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
       <c r="F695" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
       <c r="G695" t="n">
         <v>1</v>
@@ -27581,10 +27605,10 @@
         <v>695</v>
       </c>
       <c r="E696" t="s">
-        <v>767</v>
+        <v>1313</v>
       </c>
       <c r="F696" t="s">
-        <v>768</v>
+        <v>1314</v>
       </c>
       <c r="G696" t="n">
         <v>1</v>
@@ -27610,10 +27634,10 @@
         <v>696</v>
       </c>
       <c r="E697" t="s">
-        <v>1311</v>
+        <v>969</v>
       </c>
       <c r="F697" t="s">
-        <v>1312</v>
+        <v>970</v>
       </c>
       <c r="G697" t="n">
         <v>1</v>
@@ -27639,10 +27663,10 @@
         <v>697</v>
       </c>
       <c r="E698" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
       <c r="F698" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
       <c r="G698" t="n">
         <v>1</v>
@@ -27668,13 +27692,13 @@
         <v>698</v>
       </c>
       <c r="E699" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
       <c r="F699" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
       <c r="G699" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H699" t="s">
         <v>4</v>
@@ -27697,10 +27721,10 @@
         <v>699</v>
       </c>
       <c r="E700" t="s">
-        <v>1317</v>
+        <v>767</v>
       </c>
       <c r="F700" t="s">
-        <v>1318</v>
+        <v>768</v>
       </c>
       <c r="G700" t="n">
         <v>1</v>
@@ -27790,7 +27814,7 @@
         <v>1324</v>
       </c>
       <c r="G703" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H703" t="s">
         <v>4</v>
@@ -27900,10 +27924,10 @@
         <v>706</v>
       </c>
       <c r="E707" t="s">
-        <v>915</v>
+        <v>1331</v>
       </c>
       <c r="F707" t="s">
-        <v>916</v>
+        <v>1332</v>
       </c>
       <c r="G707" t="n">
         <v>1</v>
@@ -27929,10 +27953,10 @@
         <v>707</v>
       </c>
       <c r="E708" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="F708" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
       <c r="G708" t="n">
         <v>1</v>
@@ -27958,13 +27982,13 @@
         <v>708</v>
       </c>
       <c r="E709" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
       <c r="F709" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="G709" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H709" t="s">
         <v>4</v>
@@ -27987,10 +28011,10 @@
         <v>709</v>
       </c>
       <c r="E710" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
       <c r="F710" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
       <c r="G710" t="n">
         <v>1</v>
@@ -28016,10 +28040,10 @@
         <v>710</v>
       </c>
       <c r="E711" t="s">
-        <v>1337</v>
+        <v>921</v>
       </c>
       <c r="F711" t="s">
-        <v>1338</v>
+        <v>922</v>
       </c>
       <c r="G711" t="n">
         <v>1</v>
@@ -28080,7 +28104,7 @@
         <v>1342</v>
       </c>
       <c r="G713" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H713" t="s">
         <v>4</v>
@@ -28161,10 +28185,10 @@
         <v>715</v>
       </c>
       <c r="E716" t="s">
-        <v>1233</v>
+        <v>1347</v>
       </c>
       <c r="F716" t="s">
-        <v>1234</v>
+        <v>1348</v>
       </c>
       <c r="G716" t="n">
         <v>1</v>
@@ -28190,13 +28214,13 @@
         <v>716</v>
       </c>
       <c r="E717" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="F717" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G717" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H717" t="s">
         <v>4</v>
@@ -28219,13 +28243,13 @@
         <v>717</v>
       </c>
       <c r="E718" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
       <c r="F718" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
       <c r="G718" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H718" t="s">
         <v>4</v>
@@ -28248,10 +28272,10 @@
         <v>718</v>
       </c>
       <c r="E719" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
       <c r="F719" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
       <c r="G719" t="n">
         <v>1</v>
@@ -28277,10 +28301,10 @@
         <v>719</v>
       </c>
       <c r="E720" t="s">
-        <v>1353</v>
+        <v>1241</v>
       </c>
       <c r="F720" t="s">
-        <v>1354</v>
+        <v>1242</v>
       </c>
       <c r="G720" t="n">
         <v>1</v>
@@ -28312,7 +28336,7 @@
         <v>1356</v>
       </c>
       <c r="G721" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H721" t="s">
         <v>4</v>
@@ -28341,7 +28365,7 @@
         <v>1358</v>
       </c>
       <c r="G722" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H722" t="s">
         <v>4</v>
@@ -28451,10 +28475,10 @@
         <v>725</v>
       </c>
       <c r="E726" t="s">
-        <v>829</v>
+        <v>1365</v>
       </c>
       <c r="F726" t="s">
-        <v>830</v>
+        <v>1366</v>
       </c>
       <c r="G726" t="n">
         <v>1</v>
@@ -28480,10 +28504,10 @@
         <v>726</v>
       </c>
       <c r="E727" t="s">
-        <v>723</v>
+        <v>1367</v>
       </c>
       <c r="F727" t="s">
-        <v>724</v>
+        <v>1368</v>
       </c>
       <c r="G727" t="n">
         <v>1</v>
@@ -28509,10 +28533,10 @@
         <v>727</v>
       </c>
       <c r="E728" t="s">
-        <v>1365</v>
+        <v>1369</v>
       </c>
       <c r="F728" t="s">
-        <v>1366</v>
+        <v>1370</v>
       </c>
       <c r="G728" t="n">
         <v>1</v>
@@ -28538,13 +28562,13 @@
         <v>728</v>
       </c>
       <c r="E729" t="s">
-        <v>889</v>
+        <v>1371</v>
       </c>
       <c r="F729" t="s">
-        <v>890</v>
+        <v>1372</v>
       </c>
       <c r="G729" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H729" t="s">
         <v>4</v>
@@ -28567,10 +28591,10 @@
         <v>729</v>
       </c>
       <c r="E730" t="s">
-        <v>889</v>
+        <v>829</v>
       </c>
       <c r="F730" t="s">
-        <v>890</v>
+        <v>830</v>
       </c>
       <c r="G730" t="n">
         <v>1</v>
@@ -28596,10 +28620,10 @@
         <v>730</v>
       </c>
       <c r="E731" t="s">
-        <v>1367</v>
+        <v>723</v>
       </c>
       <c r="F731" t="s">
-        <v>1368</v>
+        <v>724</v>
       </c>
       <c r="G731" t="n">
         <v>1</v>
@@ -28625,13 +28649,13 @@
         <v>731</v>
       </c>
       <c r="E732" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="F732" t="s">
-        <v>1370</v>
+        <v>1374</v>
       </c>
       <c r="G732" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="H732" t="s">
         <v>4</v>
@@ -28654,13 +28678,13 @@
         <v>732</v>
       </c>
       <c r="E733" t="s">
-        <v>1371</v>
+        <v>889</v>
       </c>
       <c r="F733" t="s">
-        <v>1372</v>
+        <v>890</v>
       </c>
       <c r="G733" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H733" t="s">
         <v>4</v>
@@ -28683,13 +28707,13 @@
         <v>733</v>
       </c>
       <c r="E734" t="s">
-        <v>1373</v>
+        <v>889</v>
       </c>
       <c r="F734" t="s">
-        <v>1374</v>
+        <v>890</v>
       </c>
       <c r="G734" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H734" t="s">
         <v>4</v>
@@ -28747,7 +28771,7 @@
         <v>1378</v>
       </c>
       <c r="G736" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="H736" t="s">
         <v>4</v>
@@ -28805,7 +28829,7 @@
         <v>1382</v>
       </c>
       <c r="G738" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H738" t="s">
         <v>4</v>
@@ -28863,7 +28887,7 @@
         <v>1386</v>
       </c>
       <c r="G740" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H740" t="s">
         <v>4</v>
@@ -28950,7 +28974,7 @@
         <v>1392</v>
       </c>
       <c r="G743" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H743" t="s">
         <v>4</v>
@@ -29066,7 +29090,7 @@
         <v>1400</v>
       </c>
       <c r="G747" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H747" t="s">
         <v>4</v>
@@ -29095,7 +29119,7 @@
         <v>1402</v>
       </c>
       <c r="G748" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H748" t="s">
         <v>4</v>
@@ -29124,7 +29148,7 @@
         <v>1404</v>
       </c>
       <c r="G749" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H749" t="s">
         <v>4</v>
@@ -29153,7 +29177,7 @@
         <v>1406</v>
       </c>
       <c r="G750" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H750" t="s">
         <v>4</v>
@@ -29211,7 +29235,7 @@
         <v>1410</v>
       </c>
       <c r="G752" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H752" t="s">
         <v>4</v>
@@ -29240,7 +29264,7 @@
         <v>1412</v>
       </c>
       <c r="G753" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H753" t="s">
         <v>4</v>
@@ -29327,7 +29351,7 @@
         <v>1418</v>
       </c>
       <c r="G756" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H756" t="s">
         <v>4</v>
@@ -29385,7 +29409,7 @@
         <v>1422</v>
       </c>
       <c r="G758" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H758" t="s">
         <v>4</v>
@@ -29443,7 +29467,7 @@
         <v>1426</v>
       </c>
       <c r="G760" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H760" t="s">
         <v>4</v>
@@ -29472,7 +29496,7 @@
         <v>1428</v>
       </c>
       <c r="G761" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H761" t="s">
         <v>4</v>
@@ -29553,13 +29577,13 @@
         <v>763</v>
       </c>
       <c r="E764" t="s">
-        <v>889</v>
+        <v>1433</v>
       </c>
       <c r="F764" t="s">
-        <v>890</v>
+        <v>1434</v>
       </c>
       <c r="G764" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H764" t="s">
         <v>4</v>
@@ -29582,13 +29606,13 @@
         <v>764</v>
       </c>
       <c r="E765" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
       <c r="F765" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
       <c r="G765" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H765" t="s">
         <v>4</v>
@@ -29611,13 +29635,13 @@
         <v>765</v>
       </c>
       <c r="E766" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
       <c r="F766" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
       <c r="G766" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H766" t="s">
         <v>4</v>
@@ -29640,13 +29664,13 @@
         <v>766</v>
       </c>
       <c r="E767" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
       <c r="F767" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
       <c r="G767" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H767" t="s">
         <v>4</v>
@@ -29669,10 +29693,10 @@
         <v>767</v>
       </c>
       <c r="E768" t="s">
-        <v>1439</v>
+        <v>889</v>
       </c>
       <c r="F768" t="s">
-        <v>1440</v>
+        <v>890</v>
       </c>
       <c r="G768" t="n">
         <v>1</v>
@@ -29733,7 +29757,7 @@
         <v>1444</v>
       </c>
       <c r="G770" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H770" t="s">
         <v>4</v>
@@ -29762,7 +29786,7 @@
         <v>1446</v>
       </c>
       <c r="G771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H771" t="s">
         <v>4</v>
@@ -29849,7 +29873,7 @@
         <v>1452</v>
       </c>
       <c r="G774" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="H774" t="s">
         <v>4</v>
@@ -29878,7 +29902,7 @@
         <v>1454</v>
       </c>
       <c r="G775" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H775" t="s">
         <v>4</v>
@@ -29907,7 +29931,7 @@
         <v>1456</v>
       </c>
       <c r="G776" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H776" t="s">
         <v>4</v>
@@ -29965,7 +29989,7 @@
         <v>1460</v>
       </c>
       <c r="G778" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H778" t="s">
         <v>4</v>
@@ -29994,7 +30018,7 @@
         <v>1462</v>
       </c>
       <c r="G779" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H779" t="s">
         <v>4</v>
@@ -30023,7 +30047,7 @@
         <v>1464</v>
       </c>
       <c r="G780" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H780" t="s">
         <v>4</v>
@@ -30081,7 +30105,7 @@
         <v>1468</v>
       </c>
       <c r="G782" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H782" t="s">
         <v>4</v>
@@ -30197,7 +30221,7 @@
         <v>1476</v>
       </c>
       <c r="G786" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H786" t="s">
         <v>4</v>
@@ -30220,10 +30244,10 @@
         <v>786</v>
       </c>
       <c r="E787" t="s">
-        <v>1447</v>
+        <v>1477</v>
       </c>
       <c r="F787" t="s">
-        <v>1448</v>
+        <v>1478</v>
       </c>
       <c r="G787" t="n">
         <v>1</v>
@@ -30249,13 +30273,13 @@
         <v>787</v>
       </c>
       <c r="E788" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="F788" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
       <c r="G788" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H788" t="s">
         <v>4</v>
@@ -30278,13 +30302,13 @@
         <v>788</v>
       </c>
       <c r="E789" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
       <c r="F789" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
       <c r="G789" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H789" t="s">
         <v>4</v>
@@ -30307,13 +30331,13 @@
         <v>789</v>
       </c>
       <c r="E790" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
       <c r="F790" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
       <c r="G790" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H790" t="s">
         <v>4</v>
@@ -30336,13 +30360,13 @@
         <v>790</v>
       </c>
       <c r="E791" t="s">
-        <v>1483</v>
+        <v>1455</v>
       </c>
       <c r="F791" t="s">
-        <v>1484</v>
+        <v>1456</v>
       </c>
       <c r="G791" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H791" t="s">
         <v>4</v>
@@ -30371,7 +30395,7 @@
         <v>1486</v>
       </c>
       <c r="G792" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H792" t="s">
         <v>4</v>
@@ -30400,7 +30424,7 @@
         <v>1488</v>
       </c>
       <c r="G793" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H793" t="s">
         <v>4</v>
@@ -30429,7 +30453,7 @@
         <v>1490</v>
       </c>
       <c r="G794" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H794" t="s">
         <v>4</v>
@@ -30458,7 +30482,7 @@
         <v>1492</v>
       </c>
       <c r="G795" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H795" t="s">
         <v>4</v>
@@ -30487,7 +30511,7 @@
         <v>1494</v>
       </c>
       <c r="G796" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H796" t="s">
         <v>4</v>
@@ -30516,7 +30540,7 @@
         <v>1496</v>
       </c>
       <c r="G797" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H797" t="s">
         <v>4</v>
@@ -30574,7 +30598,7 @@
         <v>1500</v>
       </c>
       <c r="G799" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H799" t="s">
         <v>4</v>
@@ -30603,7 +30627,7 @@
         <v>1502</v>
       </c>
       <c r="G800" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H800" t="s">
         <v>4</v>
@@ -30632,7 +30656,7 @@
         <v>1504</v>
       </c>
       <c r="G801" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H801" t="s">
         <v>4</v>
@@ -30719,7 +30743,7 @@
         <v>1510</v>
       </c>
       <c r="G804" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H804" t="s">
         <v>4</v>
@@ -30748,7 +30772,7 @@
         <v>1512</v>
       </c>
       <c r="G805" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H805" t="s">
         <v>4</v>
@@ -30864,7 +30888,7 @@
         <v>1520</v>
       </c>
       <c r="G809" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H809" t="s">
         <v>4</v>
@@ -30893,7 +30917,7 @@
         <v>1522</v>
       </c>
       <c r="G810" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H810" t="s">
         <v>4</v>
@@ -30980,7 +31004,7 @@
         <v>1528</v>
       </c>
       <c r="G813" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H813" t="s">
         <v>4</v>
@@ -31009,7 +31033,7 @@
         <v>1530</v>
       </c>
       <c r="G814" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H814" t="s">
         <v>4</v>
@@ -31038,7 +31062,7 @@
         <v>1532</v>
       </c>
       <c r="G815" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H815" t="s">
         <v>4</v>
@@ -31067,7 +31091,7 @@
         <v>1534</v>
       </c>
       <c r="G816" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H816" t="s">
         <v>4</v>
@@ -31125,7 +31149,7 @@
         <v>1538</v>
       </c>
       <c r="G818" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H818" t="s">
         <v>4</v>
@@ -31154,7 +31178,7 @@
         <v>1540</v>
       </c>
       <c r="G819" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H819" t="s">
         <v>4</v>
@@ -31183,7 +31207,7 @@
         <v>1542</v>
       </c>
       <c r="G820" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H820" t="s">
         <v>4</v>
@@ -31299,7 +31323,7 @@
         <v>1550</v>
       </c>
       <c r="G824" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H824" t="s">
         <v>4</v>
@@ -31415,7 +31439,7 @@
         <v>1558</v>
       </c>
       <c r="G828" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H828" t="s">
         <v>4</v>
@@ -31531,7 +31555,7 @@
         <v>1566</v>
       </c>
       <c r="G832" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H832" t="s">
         <v>4</v>
@@ -31792,7 +31816,7 @@
         <v>1584</v>
       </c>
       <c r="G841" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H841" t="s">
         <v>4</v>
@@ -31908,7 +31932,7 @@
         <v>1592</v>
       </c>
       <c r="G845" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H845" t="s">
         <v>4</v>
@@ -32163,10 +32187,10 @@
         <v>853</v>
       </c>
       <c r="E854" t="s">
-        <v>895</v>
+        <v>1609</v>
       </c>
       <c r="F854" t="s">
-        <v>896</v>
+        <v>1610</v>
       </c>
       <c r="G854" t="n">
         <v>1</v>
@@ -32192,10 +32216,10 @@
         <v>854</v>
       </c>
       <c r="E855" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="F855" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
       <c r="G855" t="n">
         <v>1</v>
@@ -32221,10 +32245,10 @@
         <v>855</v>
       </c>
       <c r="E856" t="s">
-        <v>1611</v>
+        <v>1613</v>
       </c>
       <c r="F856" t="s">
-        <v>1612</v>
+        <v>1614</v>
       </c>
       <c r="G856" t="n">
         <v>1</v>
@@ -32250,10 +32274,10 @@
         <v>856</v>
       </c>
       <c r="E857" t="s">
-        <v>1231</v>
+        <v>1615</v>
       </c>
       <c r="F857" t="s">
-        <v>1232</v>
+        <v>1616</v>
       </c>
       <c r="G857" t="n">
         <v>1</v>
@@ -32279,10 +32303,10 @@
         <v>857</v>
       </c>
       <c r="E858" t="s">
-        <v>1613</v>
+        <v>895</v>
       </c>
       <c r="F858" t="s">
-        <v>1614</v>
+        <v>896</v>
       </c>
       <c r="G858" t="n">
         <v>1</v>
@@ -32308,10 +32332,10 @@
         <v>858</v>
       </c>
       <c r="E859" t="s">
-        <v>1615</v>
+        <v>1617</v>
       </c>
       <c r="F859" t="s">
-        <v>1616</v>
+        <v>1618</v>
       </c>
       <c r="G859" t="n">
         <v>1</v>
@@ -32337,10 +32361,10 @@
         <v>859</v>
       </c>
       <c r="E860" t="s">
-        <v>1617</v>
+        <v>1619</v>
       </c>
       <c r="F860" t="s">
-        <v>1618</v>
+        <v>1620</v>
       </c>
       <c r="G860" t="n">
         <v>1</v>
@@ -32366,10 +32390,10 @@
         <v>860</v>
       </c>
       <c r="E861" t="s">
-        <v>1619</v>
+        <v>1239</v>
       </c>
       <c r="F861" t="s">
-        <v>1620</v>
+        <v>1240</v>
       </c>
       <c r="G861" t="n">
         <v>1</v>
@@ -32714,10 +32738,10 @@
         <v>872</v>
       </c>
       <c r="E873" t="s">
-        <v>1609</v>
+        <v>1643</v>
       </c>
       <c r="F873" t="s">
-        <v>1610</v>
+        <v>1644</v>
       </c>
       <c r="G873" t="n">
         <v>1</v>
@@ -32743,10 +32767,10 @@
         <v>873</v>
       </c>
       <c r="E874" t="s">
-        <v>1643</v>
+        <v>1645</v>
       </c>
       <c r="F874" t="s">
-        <v>1644</v>
+        <v>1646</v>
       </c>
       <c r="G874" t="n">
         <v>1</v>
@@ -32772,10 +32796,10 @@
         <v>874</v>
       </c>
       <c r="E875" t="s">
-        <v>1645</v>
+        <v>1647</v>
       </c>
       <c r="F875" t="s">
-        <v>1646</v>
+        <v>1648</v>
       </c>
       <c r="G875" t="n">
         <v>1</v>
@@ -32801,10 +32825,10 @@
         <v>875</v>
       </c>
       <c r="E876" t="s">
-        <v>1647</v>
+        <v>1649</v>
       </c>
       <c r="F876" t="s">
-        <v>1648</v>
+        <v>1650</v>
       </c>
       <c r="G876" t="n">
         <v>1</v>
@@ -32830,10 +32854,10 @@
         <v>876</v>
       </c>
       <c r="E877" t="s">
-        <v>97</v>
+        <v>1617</v>
       </c>
       <c r="F877" t="s">
-        <v>98</v>
+        <v>1618</v>
       </c>
       <c r="G877" t="n">
         <v>1</v>
@@ -32859,10 +32883,10 @@
         <v>877</v>
       </c>
       <c r="E878" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="F878" t="s">
-        <v>1650</v>
+        <v>1652</v>
       </c>
       <c r="G878" t="n">
         <v>1</v>
@@ -32888,13 +32912,13 @@
         <v>878</v>
       </c>
       <c r="E879" t="s">
-        <v>1651</v>
+        <v>1653</v>
       </c>
       <c r="F879" t="s">
-        <v>1652</v>
+        <v>1654</v>
       </c>
       <c r="G879" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H879" t="s">
         <v>4</v>
@@ -32917,10 +32941,10 @@
         <v>879</v>
       </c>
       <c r="E880" t="s">
-        <v>1653</v>
+        <v>1655</v>
       </c>
       <c r="F880" t="s">
-        <v>1654</v>
+        <v>1656</v>
       </c>
       <c r="G880" t="n">
         <v>1</v>
@@ -32946,10 +32970,10 @@
         <v>880</v>
       </c>
       <c r="E881" t="s">
-        <v>1655</v>
+        <v>97</v>
       </c>
       <c r="F881" t="s">
-        <v>1656</v>
+        <v>98</v>
       </c>
       <c r="G881" t="n">
         <v>1</v>
@@ -33010,7 +33034,7 @@
         <v>1660</v>
       </c>
       <c r="G883" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H883" t="s">
         <v>4</v>
@@ -33126,7 +33150,7 @@
         <v>1668</v>
       </c>
       <c r="G887" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H887" t="s">
         <v>4</v>
@@ -33236,13 +33260,13 @@
         <v>890</v>
       </c>
       <c r="E891" t="s">
-        <v>1245</v>
+        <v>1675</v>
       </c>
       <c r="F891" t="s">
-        <v>1246</v>
+        <v>1676</v>
       </c>
       <c r="G891" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H891" t="s">
         <v>4</v>
@@ -33265,10 +33289,10 @@
         <v>891</v>
       </c>
       <c r="E892" t="s">
-        <v>1675</v>
+        <v>1677</v>
       </c>
       <c r="F892" t="s">
-        <v>1676</v>
+        <v>1678</v>
       </c>
       <c r="G892" t="n">
         <v>1</v>
@@ -33294,10 +33318,10 @@
         <v>892</v>
       </c>
       <c r="E893" t="s">
-        <v>1677</v>
+        <v>1679</v>
       </c>
       <c r="F893" t="s">
-        <v>1678</v>
+        <v>1680</v>
       </c>
       <c r="G893" t="n">
         <v>1</v>
@@ -33323,10 +33347,10 @@
         <v>893</v>
       </c>
       <c r="E894" t="s">
-        <v>1679</v>
+        <v>1681</v>
       </c>
       <c r="F894" t="s">
-        <v>1680</v>
+        <v>1682</v>
       </c>
       <c r="G894" t="n">
         <v>1</v>
@@ -33352,10 +33376,10 @@
         <v>894</v>
       </c>
       <c r="E895" t="s">
-        <v>1681</v>
+        <v>1253</v>
       </c>
       <c r="F895" t="s">
-        <v>1682</v>
+        <v>1254</v>
       </c>
       <c r="G895" t="n">
         <v>1</v>
@@ -33381,10 +33405,10 @@
         <v>895</v>
       </c>
       <c r="E896" t="s">
-        <v>1195</v>
+        <v>1683</v>
       </c>
       <c r="F896" t="s">
-        <v>1196</v>
+        <v>1684</v>
       </c>
       <c r="G896" t="n">
         <v>1</v>
@@ -33410,10 +33434,10 @@
         <v>896</v>
       </c>
       <c r="E897" t="s">
-        <v>89</v>
+        <v>1685</v>
       </c>
       <c r="F897" t="s">
-        <v>90</v>
+        <v>1686</v>
       </c>
       <c r="G897" t="n">
         <v>1</v>
@@ -33439,10 +33463,10 @@
         <v>897</v>
       </c>
       <c r="E898" t="s">
-        <v>1683</v>
+        <v>1687</v>
       </c>
       <c r="F898" t="s">
-        <v>1684</v>
+        <v>1688</v>
       </c>
       <c r="G898" t="n">
         <v>1</v>
@@ -33468,10 +33492,10 @@
         <v>898</v>
       </c>
       <c r="E899" t="s">
-        <v>1685</v>
+        <v>1689</v>
       </c>
       <c r="F899" t="s">
-        <v>1686</v>
+        <v>1690</v>
       </c>
       <c r="G899" t="n">
         <v>1</v>
@@ -33497,10 +33521,10 @@
         <v>899</v>
       </c>
       <c r="E900" t="s">
-        <v>231</v>
+        <v>1203</v>
       </c>
       <c r="F900" t="s">
-        <v>232</v>
+        <v>1204</v>
       </c>
       <c r="G900" t="n">
         <v>1</v>
@@ -33526,10 +33550,10 @@
         <v>900</v>
       </c>
       <c r="E901" t="s">
-        <v>1687</v>
+        <v>89</v>
       </c>
       <c r="F901" t="s">
-        <v>1688</v>
+        <v>90</v>
       </c>
       <c r="G901" t="n">
         <v>1</v>
@@ -33555,13 +33579,13 @@
         <v>901</v>
       </c>
       <c r="E902" t="s">
-        <v>1689</v>
+        <v>1691</v>
       </c>
       <c r="F902" t="s">
-        <v>1690</v>
+        <v>1692</v>
       </c>
       <c r="G902" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="H902" t="s">
         <v>4</v>
@@ -33584,13 +33608,13 @@
         <v>902</v>
       </c>
       <c r="E903" t="s">
-        <v>861</v>
+        <v>1693</v>
       </c>
       <c r="F903" t="s">
-        <v>862</v>
+        <v>1694</v>
       </c>
       <c r="G903" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H903" t="s">
         <v>4</v>
@@ -33613,10 +33637,10 @@
         <v>903</v>
       </c>
       <c r="E904" t="s">
-        <v>1691</v>
+        <v>231</v>
       </c>
       <c r="F904" t="s">
-        <v>1692</v>
+        <v>232</v>
       </c>
       <c r="G904" t="n">
         <v>1</v>
@@ -33642,10 +33666,10 @@
         <v>904</v>
       </c>
       <c r="E905" t="s">
-        <v>1693</v>
+        <v>1695</v>
       </c>
       <c r="F905" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="G905" t="n">
         <v>1</v>
@@ -33671,13 +33695,13 @@
         <v>905</v>
       </c>
       <c r="E906" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="F906" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="G906" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="H906" t="s">
         <v>4</v>
@@ -33700,13 +33724,13 @@
         <v>906</v>
       </c>
       <c r="E907" t="s">
-        <v>1697</v>
+        <v>861</v>
       </c>
       <c r="F907" t="s">
-        <v>1698</v>
+        <v>862</v>
       </c>
       <c r="G907" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H907" t="s">
         <v>4</v>
@@ -33822,7 +33846,7 @@
         <v>1706</v>
       </c>
       <c r="G911" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H911" t="s">
         <v>4</v>
@@ -33938,7 +33962,7 @@
         <v>1714</v>
       </c>
       <c r="G915" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H915" t="s">
         <v>4</v>
@@ -34048,13 +34072,13 @@
         <v>918</v>
       </c>
       <c r="E919" t="s">
-        <v>1199</v>
+        <v>1721</v>
       </c>
       <c r="F919" t="s">
-        <v>1200</v>
+        <v>1722</v>
       </c>
       <c r="G919" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H919" t="s">
         <v>4</v>
@@ -34077,13 +34101,13 @@
         <v>919</v>
       </c>
       <c r="E920" t="s">
-        <v>1721</v>
+        <v>1723</v>
       </c>
       <c r="F920" t="s">
-        <v>1722</v>
+        <v>1724</v>
       </c>
       <c r="G920" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H920" t="s">
         <v>4</v>
@@ -34106,10 +34130,10 @@
         <v>920</v>
       </c>
       <c r="E921" t="s">
-        <v>1723</v>
+        <v>1725</v>
       </c>
       <c r="F921" t="s">
-        <v>1724</v>
+        <v>1726</v>
       </c>
       <c r="G921" t="n">
         <v>1</v>
@@ -34135,10 +34159,10 @@
         <v>921</v>
       </c>
       <c r="E922" t="s">
-        <v>1725</v>
+        <v>1727</v>
       </c>
       <c r="F922" t="s">
-        <v>1726</v>
+        <v>1728</v>
       </c>
       <c r="G922" t="n">
         <v>1</v>
@@ -34164,13 +34188,13 @@
         <v>922</v>
       </c>
       <c r="E923" t="s">
-        <v>1727</v>
+        <v>1207</v>
       </c>
       <c r="F923" t="s">
-        <v>1728</v>
+        <v>1208</v>
       </c>
       <c r="G923" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H923" t="s">
         <v>4</v>
@@ -34199,7 +34223,7 @@
         <v>1730</v>
       </c>
       <c r="G924" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H924" t="s">
         <v>4</v>
@@ -34605,7 +34629,7 @@
         <v>1758</v>
       </c>
       <c r="G938" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H938" t="s">
         <v>4</v>
@@ -34721,7 +34745,7 @@
         <v>1766</v>
       </c>
       <c r="G942" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H942" t="s">
         <v>4</v>
@@ -34750,7 +34774,7 @@
         <v>1768</v>
       </c>
       <c r="G943" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H943" t="s">
         <v>4</v>
@@ -34860,13 +34884,13 @@
         <v>946</v>
       </c>
       <c r="E947" t="s">
-        <v>783</v>
+        <v>1775</v>
       </c>
       <c r="F947" t="s">
-        <v>784</v>
+        <v>1776</v>
       </c>
       <c r="G947" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H947" t="s">
         <v>4</v>
@@ -34889,10 +34913,10 @@
         <v>947</v>
       </c>
       <c r="E948" t="s">
-        <v>1775</v>
+        <v>1777</v>
       </c>
       <c r="F948" t="s">
-        <v>1776</v>
+        <v>1778</v>
       </c>
       <c r="G948" t="n">
         <v>1</v>
@@ -34918,10 +34942,10 @@
         <v>948</v>
       </c>
       <c r="E949" t="s">
-        <v>1777</v>
+        <v>1779</v>
       </c>
       <c r="F949" t="s">
-        <v>1778</v>
+        <v>1780</v>
       </c>
       <c r="G949" t="n">
         <v>1</v>
@@ -34947,10 +34971,10 @@
         <v>949</v>
       </c>
       <c r="E950" t="s">
-        <v>1779</v>
+        <v>1781</v>
       </c>
       <c r="F950" t="s">
-        <v>1780</v>
+        <v>1782</v>
       </c>
       <c r="G950" t="n">
         <v>1</v>
@@ -34976,10 +35000,10 @@
         <v>950</v>
       </c>
       <c r="E951" t="s">
-        <v>1781</v>
+        <v>783</v>
       </c>
       <c r="F951" t="s">
-        <v>1782</v>
+        <v>784</v>
       </c>
       <c r="G951" t="n">
         <v>1</v>
@@ -35011,7 +35035,7 @@
         <v>1784</v>
       </c>
       <c r="G952" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H952" t="s">
         <v>4</v>
@@ -35098,7 +35122,7 @@
         <v>1790</v>
       </c>
       <c r="G955" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H955" t="s">
         <v>4</v>
@@ -35127,7 +35151,7 @@
         <v>1792</v>
       </c>
       <c r="G956" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H956" t="s">
         <v>4</v>
@@ -35156,7 +35180,7 @@
         <v>1794</v>
       </c>
       <c r="G957" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H957" t="s">
         <v>4</v>
@@ -35214,7 +35238,7 @@
         <v>1798</v>
       </c>
       <c r="G959" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H959" t="s">
         <v>4</v>
@@ -35272,7 +35296,7 @@
         <v>1802</v>
       </c>
       <c r="G961" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H961" t="s">
         <v>4</v>
@@ -35330,7 +35354,7 @@
         <v>1806</v>
       </c>
       <c r="G963" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H963" t="s">
         <v>4</v>
@@ -35359,7 +35383,7 @@
         <v>1808</v>
       </c>
       <c r="G964" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H964" t="s">
         <v>4</v>
@@ -35388,7 +35412,7 @@
         <v>1810</v>
       </c>
       <c r="G965" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H965" t="s">
         <v>4</v>
@@ -35446,7 +35470,7 @@
         <v>1814</v>
       </c>
       <c r="G967" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H967" t="s">
         <v>4</v>
@@ -35475,7 +35499,7 @@
         <v>1816</v>
       </c>
       <c r="G968" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H968" t="s">
         <v>4</v>
@@ -35504,7 +35528,7 @@
         <v>1818</v>
       </c>
       <c r="G969" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H969" t="s">
         <v>4</v>
@@ -36490,7 +36514,7 @@
         <v>1886</v>
       </c>
       <c r="G1003" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1003" t="s">
         <v>4</v>
@@ -36606,7 +36630,7 @@
         <v>1894</v>
       </c>
       <c r="G1007" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1007" t="s">
         <v>4</v>
@@ -36722,7 +36746,7 @@
         <v>1902</v>
       </c>
       <c r="G1011" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1011" t="s">
         <v>4</v>
@@ -36751,7 +36775,7 @@
         <v>1904</v>
       </c>
       <c r="G1012" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1012" t="s">
         <v>4</v>
@@ -36838,7 +36862,7 @@
         <v>1910</v>
       </c>
       <c r="G1015" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1015" t="s">
         <v>4</v>
@@ -36867,7 +36891,7 @@
         <v>1912</v>
       </c>
       <c r="G1016" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1016" t="s">
         <v>4</v>
@@ -37035,10 +37059,10 @@
         <v>1021</v>
       </c>
       <c r="E1022" t="s">
-        <v>795</v>
+        <v>1923</v>
       </c>
       <c r="F1022" t="s">
-        <v>796</v>
+        <v>1924</v>
       </c>
       <c r="G1022" t="n">
         <v>1</v>
@@ -37064,10 +37088,10 @@
         <v>1022</v>
       </c>
       <c r="E1023" t="s">
-        <v>1923</v>
+        <v>1925</v>
       </c>
       <c r="F1023" t="s">
-        <v>1924</v>
+        <v>1926</v>
       </c>
       <c r="G1023" t="n">
         <v>1</v>
@@ -37093,10 +37117,10 @@
         <v>1023</v>
       </c>
       <c r="E1024" t="s">
-        <v>1925</v>
+        <v>1927</v>
       </c>
       <c r="F1024" t="s">
-        <v>1926</v>
+        <v>1928</v>
       </c>
       <c r="G1024" t="n">
         <v>1</v>
@@ -37122,13 +37146,13 @@
         <v>1024</v>
       </c>
       <c r="E1025" t="s">
-        <v>1927</v>
+        <v>1929</v>
       </c>
       <c r="F1025" t="s">
-        <v>1928</v>
+        <v>1930</v>
       </c>
       <c r="G1025" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1025" t="s">
         <v>4</v>
@@ -37151,13 +37175,13 @@
         <v>1025</v>
       </c>
       <c r="E1026" t="s">
-        <v>1929</v>
+        <v>795</v>
       </c>
       <c r="F1026" t="s">
-        <v>1930</v>
+        <v>796</v>
       </c>
       <c r="G1026" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H1026" t="s">
         <v>4</v>
@@ -37215,7 +37239,7 @@
         <v>1934</v>
       </c>
       <c r="G1028" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1028" t="s">
         <v>4</v>
@@ -37244,7 +37268,7 @@
         <v>1936</v>
       </c>
       <c r="G1029" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1029" t="s">
         <v>4</v>
@@ -37273,7 +37297,7 @@
         <v>1938</v>
       </c>
       <c r="G1030" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="H1030" t="s">
         <v>4</v>
@@ -37331,7 +37355,7 @@
         <v>1942</v>
       </c>
       <c r="G1032" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1032" t="s">
         <v>4</v>
@@ -37360,7 +37384,7 @@
         <v>1944</v>
       </c>
       <c r="G1033" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1033" t="s">
         <v>4</v>
@@ -37447,7 +37471,7 @@
         <v>1950</v>
       </c>
       <c r="G1036" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1036" t="s">
         <v>4</v>
@@ -37563,7 +37587,7 @@
         <v>1958</v>
       </c>
       <c r="G1040" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1040" t="s">
         <v>4</v>
@@ -37592,7 +37616,7 @@
         <v>1960</v>
       </c>
       <c r="G1041" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1041" t="s">
         <v>4</v>
@@ -37621,7 +37645,7 @@
         <v>1962</v>
       </c>
       <c r="G1042" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="H1042" t="s">
         <v>4</v>
@@ -37737,7 +37761,7 @@
         <v>1970</v>
       </c>
       <c r="G1046" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H1046" t="s">
         <v>4</v>
@@ -37766,7 +37790,7 @@
         <v>1972</v>
       </c>
       <c r="G1047" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1047" t="s">
         <v>4</v>
@@ -37795,7 +37819,7 @@
         <v>1974</v>
       </c>
       <c r="G1048" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1048" t="s">
         <v>4</v>
@@ -37882,7 +37906,7 @@
         <v>1980</v>
       </c>
       <c r="G1051" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1051" t="s">
         <v>4</v>
@@ -37940,7 +37964,7 @@
         <v>1984</v>
       </c>
       <c r="G1053" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1053" t="s">
         <v>4</v>
@@ -37992,10 +38016,10 @@
         <v>1054</v>
       </c>
       <c r="E1055" t="s">
-        <v>1209</v>
+        <v>1987</v>
       </c>
       <c r="F1055" t="s">
-        <v>1210</v>
+        <v>1988</v>
       </c>
       <c r="G1055" t="n">
         <v>1</v>
@@ -38021,10 +38045,10 @@
         <v>1055</v>
       </c>
       <c r="E1056" t="s">
-        <v>1987</v>
+        <v>1989</v>
       </c>
       <c r="F1056" t="s">
-        <v>1988</v>
+        <v>1990</v>
       </c>
       <c r="G1056" t="n">
         <v>1</v>
@@ -38050,13 +38074,13 @@
         <v>1056</v>
       </c>
       <c r="E1057" t="s">
-        <v>1989</v>
+        <v>1991</v>
       </c>
       <c r="F1057" t="s">
-        <v>1990</v>
+        <v>1992</v>
       </c>
       <c r="G1057" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1057" t="s">
         <v>4</v>
@@ -38079,10 +38103,10 @@
         <v>1057</v>
       </c>
       <c r="E1058" t="s">
-        <v>1991</v>
+        <v>1993</v>
       </c>
       <c r="F1058" t="s">
-        <v>1992</v>
+        <v>1994</v>
       </c>
       <c r="G1058" t="n">
         <v>1</v>
@@ -38108,10 +38132,10 @@
         <v>1058</v>
       </c>
       <c r="E1059" t="s">
-        <v>1993</v>
+        <v>1217</v>
       </c>
       <c r="F1059" t="s">
-        <v>1994</v>
+        <v>1218</v>
       </c>
       <c r="G1059" t="n">
         <v>1</v>
@@ -38230,7 +38254,7 @@
         <v>2002</v>
       </c>
       <c r="G1063" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1063" t="s">
         <v>4</v>
@@ -38317,7 +38341,7 @@
         <v>2008</v>
       </c>
       <c r="G1066" t="n">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="H1066" t="s">
         <v>4</v>
@@ -38346,7 +38370,7 @@
         <v>2010</v>
       </c>
       <c r="G1067" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="H1067" t="s">
         <v>4</v>
@@ -38404,7 +38428,7 @@
         <v>2014</v>
       </c>
       <c r="G1069" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1069" t="s">
         <v>4</v>
@@ -38433,7 +38457,7 @@
         <v>2016</v>
       </c>
       <c r="G1070" t="n">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="H1070" t="s">
         <v>4</v>
@@ -38462,7 +38486,7 @@
         <v>2018</v>
       </c>
       <c r="G1071" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="H1071" t="s">
         <v>4</v>
@@ -38491,7 +38515,7 @@
         <v>2020</v>
       </c>
       <c r="G1072" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1072" t="s">
         <v>4</v>
@@ -38520,7 +38544,7 @@
         <v>2022</v>
       </c>
       <c r="G1073" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1073" t="s">
         <v>4</v>
@@ -38607,7 +38631,7 @@
         <v>2028</v>
       </c>
       <c r="G1076" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1076" t="s">
         <v>4</v>
@@ -38694,7 +38718,7 @@
         <v>2034</v>
       </c>
       <c r="G1079" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1079" t="s">
         <v>4</v>
@@ -38810,7 +38834,7 @@
         <v>2042</v>
       </c>
       <c r="G1083" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1083" t="s">
         <v>4</v>
@@ -38839,7 +38863,7 @@
         <v>2044</v>
       </c>
       <c r="G1084" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1084" t="s">
         <v>4</v>
@@ -38955,7 +38979,7 @@
         <v>2052</v>
       </c>
       <c r="G1088" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1088" t="s">
         <v>4</v>
@@ -39216,7 +39240,7 @@
         <v>2070</v>
       </c>
       <c r="G1097" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1097" t="s">
         <v>4</v>
@@ -39332,7 +39356,7 @@
         <v>2078</v>
       </c>
       <c r="G1101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1101" t="s">
         <v>4</v>
@@ -39361,7 +39385,7 @@
         <v>2080</v>
       </c>
       <c r="G1102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1102" t="s">
         <v>4</v>
@@ -39477,7 +39501,7 @@
         <v>2088</v>
       </c>
       <c r="G1106" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1106" t="s">
         <v>4</v>
@@ -39593,7 +39617,7 @@
         <v>2096</v>
       </c>
       <c r="G1110" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1110" t="s">
         <v>4</v>
@@ -39651,7 +39675,7 @@
         <v>2100</v>
       </c>
       <c r="G1112" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H1112" t="s">
         <v>4</v>
@@ -39680,7 +39704,7 @@
         <v>2102</v>
       </c>
       <c r="G1113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1113" t="s">
         <v>4</v>
@@ -39709,7 +39733,7 @@
         <v>2104</v>
       </c>
       <c r="G1114" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1114" t="s">
         <v>4</v>
@@ -39767,7 +39791,7 @@
         <v>2108</v>
       </c>
       <c r="G1116" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H1116" t="s">
         <v>4</v>
@@ -39825,7 +39849,7 @@
         <v>2112</v>
       </c>
       <c r="G1118" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1118" t="s">
         <v>4</v>
@@ -39883,7 +39907,7 @@
         <v>2116</v>
       </c>
       <c r="G1120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1120" t="s">
         <v>4</v>
@@ -39912,7 +39936,7 @@
         <v>2118</v>
       </c>
       <c r="G1121" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1121" t="s">
         <v>4</v>
@@ -39970,7 +39994,7 @@
         <v>2122</v>
       </c>
       <c r="G1123" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1123" t="s">
         <v>4</v>
@@ -39999,7 +40023,7 @@
         <v>2124</v>
       </c>
       <c r="G1124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1124" t="s">
         <v>4</v>
@@ -40028,7 +40052,7 @@
         <v>2126</v>
       </c>
       <c r="G1125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1125" t="s">
         <v>4</v>
@@ -40057,7 +40081,7 @@
         <v>2128</v>
       </c>
       <c r="G1126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1126" t="s">
         <v>4</v>
@@ -40086,7 +40110,7 @@
         <v>2130</v>
       </c>
       <c r="G1127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1127" t="s">
         <v>4</v>
@@ -40173,7 +40197,7 @@
         <v>2136</v>
       </c>
       <c r="G1130" t="n">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="H1130" t="s">
         <v>4</v>
@@ -40289,7 +40313,7 @@
         <v>2144</v>
       </c>
       <c r="G1134" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H1134" t="s">
         <v>4</v>
@@ -40318,7 +40342,7 @@
         <v>2146</v>
       </c>
       <c r="G1135" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1135" t="s">
         <v>4</v>
@@ -40376,7 +40400,7 @@
         <v>2150</v>
       </c>
       <c r="G1137" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1137" t="s">
         <v>4</v>
@@ -40405,7 +40429,7 @@
         <v>2152</v>
       </c>
       <c r="G1138" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1138" t="s">
         <v>4</v>
@@ -40434,7 +40458,7 @@
         <v>2154</v>
       </c>
       <c r="G1139" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1139" t="s">
         <v>4</v>
@@ -40492,7 +40516,7 @@
         <v>2158</v>
       </c>
       <c r="G1141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1141" t="s">
         <v>4</v>
@@ -40521,7 +40545,7 @@
         <v>2160</v>
       </c>
       <c r="G1142" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1142" t="s">
         <v>4</v>
@@ -40550,7 +40574,7 @@
         <v>2162</v>
       </c>
       <c r="G1143" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H1143" t="s">
         <v>4</v>
@@ -40637,7 +40661,7 @@
         <v>2168</v>
       </c>
       <c r="G1146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1146" t="s">
         <v>4</v>
@@ -40666,7 +40690,7 @@
         <v>2170</v>
       </c>
       <c r="G1147" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1147" t="s">
         <v>4</v>
@@ -40753,7 +40777,7 @@
         <v>2176</v>
       </c>
       <c r="G1150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1150" t="s">
         <v>4</v>
@@ -40869,7 +40893,7 @@
         <v>2184</v>
       </c>
       <c r="G1154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1154" t="s">
         <v>4</v>
@@ -40979,10 +41003,10 @@
         <v>1157</v>
       </c>
       <c r="E1158" t="s">
-        <v>77</v>
+        <v>2191</v>
       </c>
       <c r="F1158" t="s">
-        <v>78</v>
+        <v>2192</v>
       </c>
       <c r="G1158" t="n">
         <v>2</v>
@@ -41008,13 +41032,13 @@
         <v>1158</v>
       </c>
       <c r="E1159" t="s">
-        <v>121</v>
+        <v>2193</v>
       </c>
       <c r="F1159" t="s">
-        <v>122</v>
+        <v>2194</v>
       </c>
       <c r="G1159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1159" t="s">
         <v>4</v>
@@ -41037,13 +41061,13 @@
         <v>1159</v>
       </c>
       <c r="E1160" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="F1160" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="G1160" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H1160" t="s">
         <v>4</v>
@@ -41066,13 +41090,13 @@
         <v>1160</v>
       </c>
       <c r="E1161" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="F1161" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="G1161" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H1161" t="s">
         <v>4</v>
@@ -41095,13 +41119,13 @@
         <v>1161</v>
       </c>
       <c r="E1162" t="s">
-        <v>2195</v>
+        <v>77</v>
       </c>
       <c r="F1162" t="s">
-        <v>2196</v>
+        <v>78</v>
       </c>
       <c r="G1162" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1162" t="s">
         <v>4</v>
@@ -41124,13 +41148,13 @@
         <v>1162</v>
       </c>
       <c r="E1163" t="s">
-        <v>2197</v>
+        <v>121</v>
       </c>
       <c r="F1163" t="s">
-        <v>2198</v>
+        <v>122</v>
       </c>
       <c r="G1163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1163" t="s">
         <v>4</v>
@@ -41159,7 +41183,7 @@
         <v>2200</v>
       </c>
       <c r="G1164" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1164" t="s">
         <v>4</v>
@@ -41188,7 +41212,7 @@
         <v>2202</v>
       </c>
       <c r="G1165" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H1165" t="s">
         <v>4</v>
@@ -41211,10 +41235,10 @@
         <v>1165</v>
       </c>
       <c r="E1166" t="s">
-        <v>137</v>
+        <v>2203</v>
       </c>
       <c r="F1166" t="s">
-        <v>138</v>
+        <v>2204</v>
       </c>
       <c r="G1166" t="n">
         <v>1</v>
@@ -41240,10 +41264,10 @@
         <v>1166</v>
       </c>
       <c r="E1167" t="s">
-        <v>2203</v>
+        <v>2205</v>
       </c>
       <c r="F1167" t="s">
-        <v>2204</v>
+        <v>2206</v>
       </c>
       <c r="G1167" t="n">
         <v>1</v>
@@ -41269,10 +41293,10 @@
         <v>1167</v>
       </c>
       <c r="E1168" t="s">
-        <v>2205</v>
+        <v>2207</v>
       </c>
       <c r="F1168" t="s">
-        <v>2206</v>
+        <v>2208</v>
       </c>
       <c r="G1168" t="n">
         <v>1</v>
@@ -41298,10 +41322,10 @@
         <v>1168</v>
       </c>
       <c r="E1169" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
       <c r="F1169" t="s">
-        <v>2208</v>
+        <v>2210</v>
       </c>
       <c r="G1169" t="n">
         <v>1</v>
@@ -41327,10 +41351,10 @@
         <v>1169</v>
       </c>
       <c r="E1170" t="s">
-        <v>437</v>
+        <v>137</v>
       </c>
       <c r="F1170" t="s">
-        <v>438</v>
+        <v>138</v>
       </c>
       <c r="G1170" t="n">
         <v>1</v>
@@ -41356,10 +41380,10 @@
         <v>1170</v>
       </c>
       <c r="E1171" t="s">
-        <v>603</v>
+        <v>2211</v>
       </c>
       <c r="F1171" t="s">
-        <v>604</v>
+        <v>2212</v>
       </c>
       <c r="G1171" t="n">
         <v>1</v>
@@ -41385,10 +41409,10 @@
         <v>1171</v>
       </c>
       <c r="E1172" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="F1172" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
       <c r="G1172" t="n">
         <v>1</v>
@@ -41414,13 +41438,13 @@
         <v>1172</v>
       </c>
       <c r="E1173" t="s">
-        <v>1207</v>
+        <v>2215</v>
       </c>
       <c r="F1173" t="s">
-        <v>1208</v>
+        <v>2216</v>
       </c>
       <c r="G1173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1173" t="s">
         <v>4</v>
@@ -41443,13 +41467,13 @@
         <v>1173</v>
       </c>
       <c r="E1174" t="s">
-        <v>2211</v>
+        <v>437</v>
       </c>
       <c r="F1174" t="s">
-        <v>2212</v>
+        <v>438</v>
       </c>
       <c r="G1174" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="H1174" t="s">
         <v>4</v>
@@ -41472,13 +41496,13 @@
         <v>1174</v>
       </c>
       <c r="E1175" t="s">
-        <v>2213</v>
+        <v>603</v>
       </c>
       <c r="F1175" t="s">
-        <v>2214</v>
+        <v>604</v>
       </c>
       <c r="G1175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1175" t="s">
         <v>4</v>
@@ -41501,13 +41525,13 @@
         <v>1175</v>
       </c>
       <c r="E1176" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
       <c r="F1176" t="s">
-        <v>2216</v>
+        <v>2218</v>
       </c>
       <c r="G1176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1176" t="s">
         <v>4</v>
@@ -41530,13 +41554,13 @@
         <v>1176</v>
       </c>
       <c r="E1177" t="s">
-        <v>2217</v>
+        <v>1215</v>
       </c>
       <c r="F1177" t="s">
-        <v>2218</v>
+        <v>1216</v>
       </c>
       <c r="G1177" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H1177" t="s">
         <v>4</v>
@@ -41565,7 +41589,7 @@
         <v>2220</v>
       </c>
       <c r="G1178" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H1178" t="s">
         <v>4</v>
@@ -41652,7 +41676,7 @@
         <v>2226</v>
       </c>
       <c r="G1181" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1181" t="s">
         <v>4</v>
@@ -41675,10 +41699,10 @@
         <v>1181</v>
       </c>
       <c r="E1182" t="s">
-        <v>427</v>
+        <v>2227</v>
       </c>
       <c r="F1182" t="s">
-        <v>428</v>
+        <v>2228</v>
       </c>
       <c r="G1182" t="n">
         <v>1</v>
@@ -41704,13 +41728,13 @@
         <v>1182</v>
       </c>
       <c r="E1183" t="s">
-        <v>2227</v>
+        <v>2229</v>
       </c>
       <c r="F1183" t="s">
-        <v>2228</v>
+        <v>2230</v>
       </c>
       <c r="G1183" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1183" t="s">
         <v>4</v>
@@ -41733,13 +41757,13 @@
         <v>1183</v>
       </c>
       <c r="E1184" t="s">
-        <v>2229</v>
+        <v>2231</v>
       </c>
       <c r="F1184" t="s">
-        <v>2230</v>
+        <v>2232</v>
       </c>
       <c r="G1184" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1184" t="s">
         <v>4</v>
@@ -41762,10 +41786,10 @@
         <v>1184</v>
       </c>
       <c r="E1185" t="s">
-        <v>2231</v>
+        <v>2233</v>
       </c>
       <c r="F1185" t="s">
-        <v>2232</v>
+        <v>2234</v>
       </c>
       <c r="G1185" t="n">
         <v>1</v>
@@ -41791,13 +41815,13 @@
         <v>1185</v>
       </c>
       <c r="E1186" t="s">
-        <v>2233</v>
+        <v>427</v>
       </c>
       <c r="F1186" t="s">
-        <v>2234</v>
+        <v>428</v>
       </c>
       <c r="G1186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1186" t="s">
         <v>4</v>
@@ -41913,7 +41937,7 @@
         <v>2242</v>
       </c>
       <c r="G1190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1190" t="s">
         <v>4</v>
@@ -42203,7 +42227,7 @@
         <v>2262</v>
       </c>
       <c r="G1200" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1200" t="s">
         <v>4</v>
@@ -42226,10 +42250,10 @@
         <v>1200</v>
       </c>
       <c r="E1201" t="s">
-        <v>1237</v>
+        <v>2263</v>
       </c>
       <c r="F1201" t="s">
-        <v>1238</v>
+        <v>2264</v>
       </c>
       <c r="G1201" t="n">
         <v>1</v>
@@ -42255,13 +42279,13 @@
         <v>1201</v>
       </c>
       <c r="E1202" t="s">
-        <v>2263</v>
+        <v>2265</v>
       </c>
       <c r="F1202" t="s">
-        <v>2264</v>
+        <v>2266</v>
       </c>
       <c r="G1202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1202" t="s">
         <v>4</v>
@@ -42284,10 +42308,10 @@
         <v>1202</v>
       </c>
       <c r="E1203" t="s">
-        <v>2265</v>
+        <v>2267</v>
       </c>
       <c r="F1203" t="s">
-        <v>2266</v>
+        <v>2268</v>
       </c>
       <c r="G1203" t="n">
         <v>1</v>
@@ -42313,13 +42337,13 @@
         <v>1203</v>
       </c>
       <c r="E1204" t="s">
-        <v>2267</v>
+        <v>2269</v>
       </c>
       <c r="F1204" t="s">
-        <v>2268</v>
+        <v>2270</v>
       </c>
       <c r="G1204" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1204" t="s">
         <v>4</v>
@@ -42342,10 +42366,10 @@
         <v>1204</v>
       </c>
       <c r="E1205" t="s">
-        <v>2269</v>
+        <v>1245</v>
       </c>
       <c r="F1205" t="s">
-        <v>2270</v>
+        <v>1246</v>
       </c>
       <c r="G1205" t="n">
         <v>1</v>
@@ -42377,7 +42401,7 @@
         <v>2272</v>
       </c>
       <c r="G1206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1206" t="s">
         <v>4</v>
@@ -42435,7 +42459,7 @@
         <v>2276</v>
       </c>
       <c r="G1208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1208" t="s">
         <v>4</v>
@@ -42464,7 +42488,7 @@
         <v>2278</v>
       </c>
       <c r="G1209" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1209" t="s">
         <v>4</v>
@@ -42522,7 +42546,7 @@
         <v>2282</v>
       </c>
       <c r="G1211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1211" t="s">
         <v>4</v>
@@ -42551,7 +42575,7 @@
         <v>2284</v>
       </c>
       <c r="G1212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1212" t="s">
         <v>4</v>
@@ -42580,7 +42604,7 @@
         <v>2286</v>
       </c>
       <c r="G1213" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H1213" t="s">
         <v>4</v>
@@ -42603,10 +42627,10 @@
         <v>1213</v>
       </c>
       <c r="E1214" t="s">
-        <v>1033</v>
+        <v>2287</v>
       </c>
       <c r="F1214" t="s">
-        <v>1034</v>
+        <v>2288</v>
       </c>
       <c r="G1214" t="n">
         <v>1</v>
@@ -42632,13 +42656,13 @@
         <v>1214</v>
       </c>
       <c r="E1215" t="s">
-        <v>2287</v>
+        <v>2289</v>
       </c>
       <c r="F1215" t="s">
-        <v>2288</v>
+        <v>2290</v>
       </c>
       <c r="G1215" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1215" t="s">
         <v>4</v>
@@ -42661,10 +42685,10 @@
         <v>1215</v>
       </c>
       <c r="E1216" t="s">
-        <v>2289</v>
+        <v>2291</v>
       </c>
       <c r="F1216" t="s">
-        <v>2290</v>
+        <v>2292</v>
       </c>
       <c r="G1216" t="n">
         <v>1</v>
@@ -42690,10 +42714,10 @@
         <v>1216</v>
       </c>
       <c r="E1217" t="s">
-        <v>2291</v>
+        <v>2293</v>
       </c>
       <c r="F1217" t="s">
-        <v>2292</v>
+        <v>2294</v>
       </c>
       <c r="G1217" t="n">
         <v>1</v>
@@ -42719,10 +42743,10 @@
         <v>1217</v>
       </c>
       <c r="E1218" t="s">
-        <v>1239</v>
+        <v>1039</v>
       </c>
       <c r="F1218" t="s">
-        <v>1240</v>
+        <v>1040</v>
       </c>
       <c r="G1218" t="n">
         <v>1</v>
@@ -42748,10 +42772,10 @@
         <v>1218</v>
       </c>
       <c r="E1219" t="s">
-        <v>2293</v>
+        <v>2295</v>
       </c>
       <c r="F1219" t="s">
-        <v>2294</v>
+        <v>2296</v>
       </c>
       <c r="G1219" t="n">
         <v>1</v>
@@ -42777,10 +42801,10 @@
         <v>1219</v>
       </c>
       <c r="E1220" t="s">
-        <v>2295</v>
+        <v>2297</v>
       </c>
       <c r="F1220" t="s">
-        <v>2296</v>
+        <v>2298</v>
       </c>
       <c r="G1220" t="n">
         <v>1</v>
@@ -42806,10 +42830,10 @@
         <v>1220</v>
       </c>
       <c r="E1221" t="s">
-        <v>2297</v>
+        <v>2299</v>
       </c>
       <c r="F1221" t="s">
-        <v>2298</v>
+        <v>2300</v>
       </c>
       <c r="G1221" t="n">
         <v>1</v>
@@ -42835,10 +42859,10 @@
         <v>1221</v>
       </c>
       <c r="E1222" t="s">
-        <v>2299</v>
+        <v>1247</v>
       </c>
       <c r="F1222" t="s">
-        <v>2300</v>
+        <v>1248</v>
       </c>
       <c r="G1222" t="n">
         <v>1</v>
@@ -43160,7 +43184,7 @@
         <v>2322</v>
       </c>
       <c r="G1233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H1233" t="s">
         <v>4</v>
@@ -43276,7 +43300,7 @@
         <v>2330</v>
       </c>
       <c r="G1237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1237" t="s">
         <v>4</v>
@@ -43392,7 +43416,7 @@
         <v>2338</v>
       </c>
       <c r="G1241" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1241" t="s">
         <v>4</v>
@@ -43508,7 +43532,7 @@
         <v>2346</v>
       </c>
       <c r="G1245" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="H1245" t="s">
         <v>4</v>
@@ -43531,10 +43555,10 @@
         <v>1245</v>
       </c>
       <c r="E1246" t="s">
-        <v>2345</v>
+        <v>2347</v>
       </c>
       <c r="F1246" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="G1246" t="n">
         <v>1</v>
@@ -43543,6 +43567,122 @@
         <v>4</v>
       </c>
       <c r="I1246" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:9">
+      <c r="A1247" s="1" t="n">
+        <v>1245</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1247" t="n">
+        <v>1246</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>2350</v>
+      </c>
+      <c r="G1247" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1247" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:9">
+      <c r="A1248" s="1" t="n">
+        <v>1246</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1248" t="n">
+        <v>1247</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>2351</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>2352</v>
+      </c>
+      <c r="G1248" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1248" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:9">
+      <c r="A1249" s="1" t="n">
+        <v>1247</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1249" t="n">
+        <v>1248</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>2354</v>
+      </c>
+      <c r="G1249" t="n">
+        <v>23</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1249" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:9">
+      <c r="A1250" s="1" t="n">
+        <v>1248</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1250" t="n">
+        <v>1249</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>2353</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>2355</v>
+      </c>
+      <c r="G1250" t="n">
+        <v>1</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1250" t="n">
         <v>3</v>
       </c>
     </row>
